--- a/Merck Sereno Dashboard/Dashboard/Content/ExportTemplate/Trend.xlsx
+++ b/Merck Sereno Dashboard/Dashboard/Content/ExportTemplate/Trend.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225"/>
@@ -92,18 +92,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF3399"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -123,8 +117,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39994506668294322"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -161,6 +167,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="1">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="8" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal style="thin">
+        <color theme="8" tint="-0.499984740745262"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -172,7 +198,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -221,17 +247,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="37" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -245,20 +262,41 @@
     <xf numFmtId="37" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -403,8 +441,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="39539840"/>
-        <c:axId val="39541376"/>
+        <c:axId val="126155264"/>
+        <c:axId val="78714496"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2576,11 +2614,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="39539840"/>
-        <c:axId val="39541376"/>
+        <c:axId val="126155264"/>
+        <c:axId val="78714496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="39539840"/>
+        <c:axId val="126155264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2590,7 +2628,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39541376"/>
+        <c:crossAx val="78714496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2598,7 +2636,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="39541376"/>
+        <c:axId val="78714496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2608,7 +2646,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39539840"/>
+        <c:crossAx val="126155264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2684,13 +2722,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>35718</xdr:colOff>
+      <xdr:colOff>11906</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>23812</xdr:colOff>
+      <xdr:colOff>-1</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>-1</xdr:rowOff>
     </xdr:to>
@@ -2715,8 +2753,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="226218" y="23812"/>
-          <a:ext cx="13680282" cy="714375"/>
+          <a:off x="202406" y="23812"/>
+          <a:ext cx="13680281" cy="714375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3102,13 +3140,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P140"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" style="26" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" style="21" customWidth="1"/>
     <col min="2" max="2" width="26.42578125" style="6" customWidth="1"/>
     <col min="3" max="3" width="14" style="2" customWidth="1"/>
     <col min="4" max="18" width="13.7109375" style="2" customWidth="1"/>
@@ -3120,55 +3158,55 @@
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="16"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="32"/>
       <c r="P2" s="12"/>
     </row>
     <row r="3" spans="1:16" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="19"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="28"/>
       <c r="P3" s="13"/>
     </row>
     <row r="4" spans="1:16" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="18"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="16"/>
       <c r="P4" s="14"/>
     </row>
     <row r="5" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3429,7 +3467,7 @@
       <c r="B27" s="5"/>
     </row>
     <row r="31" spans="1:16" s="10" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="28"/>
+      <c r="A31" s="23"/>
       <c r="B31" s="15"/>
       <c r="C31" s="9"/>
       <c r="D31" s="7"/>
@@ -3447,1109 +3485,1109 @@
       <c r="P31" s="7"/>
     </row>
     <row r="32" spans="1:16" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="28"/>
+      <c r="A32" s="23"/>
       <c r="B32" s="11"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20"/>
-      <c r="N32" s="20"/>
-      <c r="O32" s="20"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
     </row>
     <row r="33" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="8"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="22"/>
-      <c r="L33" s="22"/>
-      <c r="M33" s="22"/>
-      <c r="N33" s="22"/>
-      <c r="O33" s="22"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="19"/>
     </row>
     <row r="34" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="8"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="21"/>
-      <c r="N34" s="21"/>
-      <c r="O34" s="21"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="18"/>
+      <c r="N34" s="18"/>
+      <c r="O34" s="18"/>
     </row>
     <row r="35" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="8"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="21"/>
-      <c r="L35" s="21"/>
-      <c r="M35" s="21"/>
-      <c r="N35" s="21"/>
-      <c r="O35" s="21"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="18"/>
+      <c r="N35" s="18"/>
+      <c r="O35" s="18"/>
     </row>
     <row r="36" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="8"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="21"/>
-      <c r="K36" s="21"/>
-      <c r="L36" s="21"/>
-      <c r="M36" s="21"/>
-      <c r="N36" s="21"/>
-      <c r="O36" s="21"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="18"/>
+      <c r="O36" s="18"/>
     </row>
     <row r="37" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="8"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="22"/>
-      <c r="L37" s="22"/>
-      <c r="M37" s="22"/>
-      <c r="N37" s="22"/>
-      <c r="O37" s="22"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="19"/>
     </row>
     <row r="38" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="8"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="22"/>
-      <c r="L38" s="22"/>
-      <c r="M38" s="22"/>
-      <c r="N38" s="22"/>
-      <c r="O38" s="22"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="19"/>
+      <c r="O38" s="19"/>
     </row>
     <row r="39" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="8"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="22"/>
-      <c r="L39" s="22"/>
-      <c r="M39" s="22"/>
-      <c r="N39" s="22"/>
-      <c r="O39" s="22"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="19"/>
+      <c r="O39" s="19"/>
     </row>
     <row r="40" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="8"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="22"/>
-      <c r="J40" s="22"/>
-      <c r="K40" s="22"/>
-      <c r="L40" s="22"/>
-      <c r="M40" s="22"/>
-      <c r="N40" s="22"/>
-      <c r="O40" s="22"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="19"/>
+      <c r="O40" s="19"/>
     </row>
     <row r="41" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="8"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="22"/>
-      <c r="J41" s="22"/>
-      <c r="K41" s="22"/>
-      <c r="L41" s="22"/>
-      <c r="M41" s="22"/>
-      <c r="N41" s="22"/>
-      <c r="O41" s="22"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="19"/>
+      <c r="O41" s="19"/>
     </row>
     <row r="42" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="8"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="22"/>
-      <c r="J42" s="22"/>
-      <c r="K42" s="22"/>
-      <c r="L42" s="22"/>
-      <c r="M42" s="22"/>
-      <c r="N42" s="22"/>
-      <c r="O42" s="22"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="19"/>
+      <c r="K42" s="19"/>
+      <c r="L42" s="19"/>
+      <c r="M42" s="19"/>
+      <c r="N42" s="19"/>
+      <c r="O42" s="19"/>
     </row>
     <row r="43" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="8"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="22"/>
-      <c r="J43" s="22"/>
-      <c r="K43" s="22"/>
-      <c r="L43" s="22"/>
-      <c r="M43" s="22"/>
-      <c r="N43" s="22"/>
-      <c r="O43" s="22"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="19"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="19"/>
+      <c r="O43" s="19"/>
     </row>
     <row r="44" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="8"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="22"/>
-      <c r="J44" s="22"/>
-      <c r="K44" s="22"/>
-      <c r="L44" s="22"/>
-      <c r="M44" s="22"/>
-      <c r="N44" s="22"/>
-      <c r="O44" s="22"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="19"/>
+      <c r="M44" s="19"/>
+      <c r="N44" s="19"/>
+      <c r="O44" s="19"/>
     </row>
     <row r="45" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="8"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="22"/>
-      <c r="I45" s="22"/>
-      <c r="J45" s="22"/>
-      <c r="K45" s="22"/>
-      <c r="L45" s="22"/>
-      <c r="M45" s="22"/>
-      <c r="N45" s="22"/>
-      <c r="O45" s="22"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="19"/>
+      <c r="K45" s="19"/>
+      <c r="L45" s="19"/>
+      <c r="M45" s="19"/>
+      <c r="N45" s="19"/>
+      <c r="O45" s="19"/>
     </row>
     <row r="46" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="8"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="22"/>
-      <c r="I46" s="22"/>
-      <c r="J46" s="22"/>
-      <c r="K46" s="22"/>
-      <c r="L46" s="22"/>
-      <c r="M46" s="22"/>
-      <c r="N46" s="22"/>
-      <c r="O46" s="22"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="19"/>
+      <c r="K46" s="19"/>
+      <c r="L46" s="19"/>
+      <c r="M46" s="19"/>
+      <c r="N46" s="19"/>
+      <c r="O46" s="19"/>
     </row>
     <row r="47" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="8"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="22"/>
-      <c r="J47" s="22"/>
-      <c r="K47" s="22"/>
-      <c r="L47" s="22"/>
-      <c r="M47" s="22"/>
-      <c r="N47" s="22"/>
-      <c r="O47" s="22"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="19"/>
+      <c r="K47" s="19"/>
+      <c r="L47" s="19"/>
+      <c r="M47" s="19"/>
+      <c r="N47" s="19"/>
+      <c r="O47" s="19"/>
     </row>
     <row r="48" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="8"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="22"/>
-      <c r="I48" s="22"/>
-      <c r="J48" s="22"/>
-      <c r="K48" s="22"/>
-      <c r="L48" s="22"/>
-      <c r="M48" s="22"/>
-      <c r="N48" s="22"/>
-      <c r="O48" s="22"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="19"/>
+      <c r="K48" s="19"/>
+      <c r="L48" s="19"/>
+      <c r="M48" s="19"/>
+      <c r="N48" s="19"/>
+      <c r="O48" s="19"/>
     </row>
     <row r="49" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="8"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="22"/>
-      <c r="I49" s="22"/>
-      <c r="J49" s="22"/>
-      <c r="K49" s="22"/>
-      <c r="L49" s="22"/>
-      <c r="M49" s="22"/>
-      <c r="N49" s="22"/>
-      <c r="O49" s="22"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="19"/>
+      <c r="K49" s="19"/>
+      <c r="L49" s="19"/>
+      <c r="M49" s="19"/>
+      <c r="N49" s="19"/>
+      <c r="O49" s="19"/>
     </row>
     <row r="50" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="8"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="22"/>
-      <c r="I50" s="22"/>
-      <c r="J50" s="22"/>
-      <c r="K50" s="22"/>
-      <c r="L50" s="22"/>
-      <c r="M50" s="22"/>
-      <c r="N50" s="22"/>
-      <c r="O50" s="22"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="19"/>
+      <c r="K50" s="19"/>
+      <c r="L50" s="19"/>
+      <c r="M50" s="19"/>
+      <c r="N50" s="19"/>
+      <c r="O50" s="19"/>
     </row>
     <row r="51" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="8"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="22"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="22"/>
-      <c r="G51" s="22"/>
-      <c r="H51" s="22"/>
-      <c r="I51" s="22"/>
-      <c r="J51" s="22"/>
-      <c r="K51" s="22"/>
-      <c r="L51" s="22"/>
-      <c r="M51" s="22"/>
-      <c r="N51" s="22"/>
-      <c r="O51" s="22"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="19"/>
+      <c r="K51" s="19"/>
+      <c r="L51" s="19"/>
+      <c r="M51" s="19"/>
+      <c r="N51" s="19"/>
+      <c r="O51" s="19"/>
     </row>
     <row r="52" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="8"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="22"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="22"/>
-      <c r="G52" s="22"/>
-      <c r="H52" s="22"/>
-      <c r="I52" s="22"/>
-      <c r="J52" s="22"/>
-      <c r="K52" s="22"/>
-      <c r="L52" s="22"/>
-      <c r="M52" s="22"/>
-      <c r="N52" s="22"/>
-      <c r="O52" s="22"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="19"/>
+      <c r="H52" s="19"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="19"/>
+      <c r="K52" s="19"/>
+      <c r="L52" s="19"/>
+      <c r="M52" s="19"/>
+      <c r="N52" s="19"/>
+      <c r="O52" s="19"/>
     </row>
     <row r="53" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="8"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="22"/>
-      <c r="G53" s="22"/>
-      <c r="H53" s="22"/>
-      <c r="I53" s="22"/>
-      <c r="J53" s="22"/>
-      <c r="K53" s="22"/>
-      <c r="L53" s="22"/>
-      <c r="M53" s="22"/>
-      <c r="N53" s="22"/>
-      <c r="O53" s="22"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="19"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="19"/>
+      <c r="K53" s="19"/>
+      <c r="L53" s="19"/>
+      <c r="M53" s="19"/>
+      <c r="N53" s="19"/>
+      <c r="O53" s="19"/>
     </row>
     <row r="54" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="8"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="22"/>
-      <c r="G54" s="22"/>
-      <c r="H54" s="22"/>
-      <c r="I54" s="22"/>
-      <c r="J54" s="22"/>
-      <c r="K54" s="22"/>
-      <c r="L54" s="22"/>
-      <c r="M54" s="22"/>
-      <c r="N54" s="22"/>
-      <c r="O54" s="22"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="19"/>
+      <c r="K54" s="19"/>
+      <c r="L54" s="19"/>
+      <c r="M54" s="19"/>
+      <c r="N54" s="19"/>
+      <c r="O54" s="19"/>
     </row>
     <row r="55" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="8"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="22"/>
-      <c r="F55" s="22"/>
-      <c r="G55" s="22"/>
-      <c r="H55" s="22"/>
-      <c r="I55" s="22"/>
-      <c r="J55" s="22"/>
-      <c r="K55" s="22"/>
-      <c r="L55" s="22"/>
-      <c r="M55" s="22"/>
-      <c r="N55" s="22"/>
-      <c r="O55" s="22"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="19"/>
+      <c r="H55" s="19"/>
+      <c r="I55" s="19"/>
+      <c r="J55" s="19"/>
+      <c r="K55" s="19"/>
+      <c r="L55" s="19"/>
+      <c r="M55" s="19"/>
+      <c r="N55" s="19"/>
+      <c r="O55" s="19"/>
     </row>
     <row r="56" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="8"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="22"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="22"/>
-      <c r="I56" s="22"/>
-      <c r="J56" s="22"/>
-      <c r="K56" s="22"/>
-      <c r="L56" s="22"/>
-      <c r="M56" s="22"/>
-      <c r="N56" s="22"/>
-      <c r="O56" s="22"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="19"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="19"/>
+      <c r="K56" s="19"/>
+      <c r="L56" s="19"/>
+      <c r="M56" s="19"/>
+      <c r="N56" s="19"/>
+      <c r="O56" s="19"/>
     </row>
     <row r="57" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="8"/>
-      <c r="C57" s="22"/>
-      <c r="D57" s="22"/>
-      <c r="E57" s="22"/>
-      <c r="F57" s="22"/>
-      <c r="G57" s="22"/>
-      <c r="H57" s="22"/>
-      <c r="I57" s="22"/>
-      <c r="J57" s="22"/>
-      <c r="K57" s="22"/>
-      <c r="L57" s="22"/>
-      <c r="M57" s="22"/>
-      <c r="N57" s="22"/>
-      <c r="O57" s="22"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="19"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="19"/>
+      <c r="K57" s="19"/>
+      <c r="L57" s="19"/>
+      <c r="M57" s="19"/>
+      <c r="N57" s="19"/>
+      <c r="O57" s="19"/>
     </row>
     <row r="58" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="8"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="22"/>
-      <c r="E58" s="22"/>
-      <c r="F58" s="22"/>
-      <c r="G58" s="22"/>
-      <c r="H58" s="22"/>
-      <c r="I58" s="22"/>
-      <c r="J58" s="22"/>
-      <c r="K58" s="22"/>
-      <c r="L58" s="22"/>
-      <c r="M58" s="22"/>
-      <c r="N58" s="22"/>
-      <c r="O58" s="22"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="19"/>
+      <c r="H58" s="19"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="19"/>
+      <c r="K58" s="19"/>
+      <c r="L58" s="19"/>
+      <c r="M58" s="19"/>
+      <c r="N58" s="19"/>
+      <c r="O58" s="19"/>
     </row>
     <row r="59" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="8"/>
-      <c r="C59" s="22"/>
-      <c r="D59" s="22"/>
-      <c r="E59" s="22"/>
-      <c r="F59" s="22"/>
-      <c r="G59" s="22"/>
-      <c r="H59" s="22"/>
-      <c r="I59" s="22"/>
-      <c r="J59" s="22"/>
-      <c r="K59" s="22"/>
-      <c r="L59" s="22"/>
-      <c r="M59" s="22"/>
-      <c r="N59" s="22"/>
-      <c r="O59" s="22"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="19"/>
+      <c r="H59" s="19"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="19"/>
+      <c r="K59" s="19"/>
+      <c r="L59" s="19"/>
+      <c r="M59" s="19"/>
+      <c r="N59" s="19"/>
+      <c r="O59" s="19"/>
     </row>
     <row r="60" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="8"/>
-      <c r="C60" s="22"/>
-      <c r="D60" s="22"/>
-      <c r="E60" s="22"/>
-      <c r="F60" s="22"/>
-      <c r="G60" s="22"/>
-      <c r="H60" s="22"/>
-      <c r="I60" s="22"/>
-      <c r="J60" s="22"/>
-      <c r="K60" s="22"/>
-      <c r="L60" s="22"/>
-      <c r="M60" s="22"/>
-      <c r="N60" s="22"/>
-      <c r="O60" s="22"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="19"/>
+      <c r="G60" s="19"/>
+      <c r="H60" s="19"/>
+      <c r="I60" s="19"/>
+      <c r="J60" s="19"/>
+      <c r="K60" s="19"/>
+      <c r="L60" s="19"/>
+      <c r="M60" s="19"/>
+      <c r="N60" s="19"/>
+      <c r="O60" s="19"/>
     </row>
     <row r="61" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="8"/>
-      <c r="C61" s="22"/>
-      <c r="D61" s="22"/>
-      <c r="E61" s="22"/>
-      <c r="F61" s="22"/>
-      <c r="G61" s="22"/>
-      <c r="H61" s="22"/>
-      <c r="I61" s="22"/>
-      <c r="J61" s="22"/>
-      <c r="K61" s="22"/>
-      <c r="L61" s="22"/>
-      <c r="M61" s="22"/>
-      <c r="N61" s="22"/>
-      <c r="O61" s="22"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="19"/>
+      <c r="H61" s="19"/>
+      <c r="I61" s="19"/>
+      <c r="J61" s="19"/>
+      <c r="K61" s="19"/>
+      <c r="L61" s="19"/>
+      <c r="M61" s="19"/>
+      <c r="N61" s="19"/>
+      <c r="O61" s="19"/>
     </row>
     <row r="62" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="8"/>
-      <c r="C62" s="22"/>
-      <c r="D62" s="22"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="22"/>
-      <c r="G62" s="22"/>
-      <c r="H62" s="22"/>
-      <c r="I62" s="22"/>
-      <c r="J62" s="22"/>
-      <c r="K62" s="22"/>
-      <c r="L62" s="22"/>
-      <c r="M62" s="22"/>
-      <c r="N62" s="22"/>
-      <c r="O62" s="22"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="19"/>
+      <c r="G62" s="19"/>
+      <c r="H62" s="19"/>
+      <c r="I62" s="19"/>
+      <c r="J62" s="19"/>
+      <c r="K62" s="19"/>
+      <c r="L62" s="19"/>
+      <c r="M62" s="19"/>
+      <c r="N62" s="19"/>
+      <c r="O62" s="19"/>
     </row>
     <row r="63" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="8"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="22"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="22"/>
-      <c r="G63" s="22"/>
-      <c r="H63" s="22"/>
-      <c r="I63" s="22"/>
-      <c r="J63" s="22"/>
-      <c r="K63" s="22"/>
-      <c r="L63" s="22"/>
-      <c r="M63" s="22"/>
-      <c r="N63" s="22"/>
-      <c r="O63" s="22"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="19"/>
+      <c r="G63" s="19"/>
+      <c r="H63" s="19"/>
+      <c r="I63" s="19"/>
+      <c r="J63" s="19"/>
+      <c r="K63" s="19"/>
+      <c r="L63" s="19"/>
+      <c r="M63" s="19"/>
+      <c r="N63" s="19"/>
+      <c r="O63" s="19"/>
     </row>
     <row r="64" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="8"/>
-      <c r="C64" s="22"/>
-      <c r="D64" s="22"/>
-      <c r="E64" s="22"/>
-      <c r="F64" s="22"/>
-      <c r="G64" s="22"/>
-      <c r="H64" s="22"/>
-      <c r="I64" s="22"/>
-      <c r="J64" s="22"/>
-      <c r="K64" s="22"/>
-      <c r="L64" s="22"/>
-      <c r="M64" s="22"/>
-      <c r="N64" s="22"/>
-      <c r="O64" s="22"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="19"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="19"/>
+      <c r="G64" s="19"/>
+      <c r="H64" s="19"/>
+      <c r="I64" s="19"/>
+      <c r="J64" s="19"/>
+      <c r="K64" s="19"/>
+      <c r="L64" s="19"/>
+      <c r="M64" s="19"/>
+      <c r="N64" s="19"/>
+      <c r="O64" s="19"/>
     </row>
     <row r="65" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="8"/>
-      <c r="C65" s="22"/>
-      <c r="D65" s="22"/>
-      <c r="E65" s="22"/>
-      <c r="F65" s="22"/>
-      <c r="G65" s="22"/>
-      <c r="H65" s="22"/>
-      <c r="I65" s="22"/>
-      <c r="J65" s="22"/>
-      <c r="K65" s="22"/>
-      <c r="L65" s="22"/>
-      <c r="M65" s="22"/>
-      <c r="N65" s="22"/>
-      <c r="O65" s="22"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="19"/>
+      <c r="F65" s="19"/>
+      <c r="G65" s="19"/>
+      <c r="H65" s="19"/>
+      <c r="I65" s="19"/>
+      <c r="J65" s="19"/>
+      <c r="K65" s="19"/>
+      <c r="L65" s="19"/>
+      <c r="M65" s="19"/>
+      <c r="N65" s="19"/>
+      <c r="O65" s="19"/>
     </row>
     <row r="66" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="8"/>
-      <c r="C66" s="22"/>
-      <c r="D66" s="22"/>
-      <c r="E66" s="22"/>
-      <c r="F66" s="22"/>
-      <c r="G66" s="22"/>
-      <c r="H66" s="22"/>
-      <c r="I66" s="22"/>
-      <c r="J66" s="22"/>
-      <c r="K66" s="22"/>
-      <c r="L66" s="22"/>
-      <c r="M66" s="22"/>
-      <c r="N66" s="22"/>
-      <c r="O66" s="22"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="19"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="19"/>
+      <c r="G66" s="19"/>
+      <c r="H66" s="19"/>
+      <c r="I66" s="19"/>
+      <c r="J66" s="19"/>
+      <c r="K66" s="19"/>
+      <c r="L66" s="19"/>
+      <c r="M66" s="19"/>
+      <c r="N66" s="19"/>
+      <c r="O66" s="19"/>
     </row>
     <row r="67" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="8"/>
-      <c r="C67" s="22"/>
-      <c r="D67" s="22"/>
-      <c r="E67" s="22"/>
-      <c r="F67" s="22"/>
-      <c r="G67" s="22"/>
-      <c r="H67" s="22"/>
-      <c r="I67" s="22"/>
-      <c r="J67" s="22"/>
-      <c r="K67" s="22"/>
-      <c r="L67" s="22"/>
-      <c r="M67" s="22"/>
-      <c r="N67" s="22"/>
-      <c r="O67" s="22"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="19"/>
+      <c r="G67" s="19"/>
+      <c r="H67" s="19"/>
+      <c r="I67" s="19"/>
+      <c r="J67" s="19"/>
+      <c r="K67" s="19"/>
+      <c r="L67" s="19"/>
+      <c r="M67" s="19"/>
+      <c r="N67" s="19"/>
+      <c r="O67" s="19"/>
     </row>
     <row r="68" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="8"/>
-      <c r="C68" s="22"/>
-      <c r="D68" s="22"/>
-      <c r="E68" s="22"/>
-      <c r="F68" s="22"/>
-      <c r="G68" s="22"/>
-      <c r="H68" s="22"/>
-      <c r="I68" s="22"/>
-      <c r="J68" s="22"/>
-      <c r="K68" s="22"/>
-      <c r="L68" s="22"/>
-      <c r="M68" s="22"/>
-      <c r="N68" s="22"/>
-      <c r="O68" s="22"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="19"/>
+      <c r="E68" s="19"/>
+      <c r="F68" s="19"/>
+      <c r="G68" s="19"/>
+      <c r="H68" s="19"/>
+      <c r="I68" s="19"/>
+      <c r="J68" s="19"/>
+      <c r="K68" s="19"/>
+      <c r="L68" s="19"/>
+      <c r="M68" s="19"/>
+      <c r="N68" s="19"/>
+      <c r="O68" s="19"/>
     </row>
     <row r="69" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="8"/>
-      <c r="C69" s="22"/>
-      <c r="D69" s="22"/>
-      <c r="E69" s="22"/>
-      <c r="F69" s="22"/>
-      <c r="G69" s="22"/>
-      <c r="H69" s="22"/>
-      <c r="I69" s="22"/>
-      <c r="J69" s="22"/>
-      <c r="K69" s="22"/>
-      <c r="L69" s="22"/>
-      <c r="M69" s="22"/>
-      <c r="N69" s="22"/>
-      <c r="O69" s="22"/>
+      <c r="C69" s="19"/>
+      <c r="D69" s="19"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="19"/>
+      <c r="G69" s="19"/>
+      <c r="H69" s="19"/>
+      <c r="I69" s="19"/>
+      <c r="J69" s="19"/>
+      <c r="K69" s="19"/>
+      <c r="L69" s="19"/>
+      <c r="M69" s="19"/>
+      <c r="N69" s="19"/>
+      <c r="O69" s="19"/>
     </row>
     <row r="70" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="8"/>
-      <c r="C70" s="22"/>
-      <c r="D70" s="22"/>
-      <c r="E70" s="22"/>
-      <c r="F70" s="22"/>
-      <c r="G70" s="22"/>
-      <c r="H70" s="22"/>
-      <c r="I70" s="22"/>
-      <c r="J70" s="22"/>
-      <c r="K70" s="22"/>
-      <c r="L70" s="22"/>
-      <c r="M70" s="22"/>
-      <c r="N70" s="22"/>
-      <c r="O70" s="22"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="19"/>
+      <c r="E70" s="19"/>
+      <c r="F70" s="19"/>
+      <c r="G70" s="19"/>
+      <c r="H70" s="19"/>
+      <c r="I70" s="19"/>
+      <c r="J70" s="19"/>
+      <c r="K70" s="19"/>
+      <c r="L70" s="19"/>
+      <c r="M70" s="19"/>
+      <c r="N70" s="19"/>
+      <c r="O70" s="19"/>
     </row>
     <row r="71" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="8"/>
-      <c r="C71" s="22"/>
-      <c r="D71" s="22"/>
-      <c r="E71" s="22"/>
-      <c r="F71" s="22"/>
-      <c r="G71" s="22"/>
-      <c r="H71" s="22"/>
-      <c r="I71" s="22"/>
-      <c r="J71" s="22"/>
-      <c r="K71" s="22"/>
-      <c r="L71" s="22"/>
-      <c r="M71" s="22"/>
-      <c r="N71" s="22"/>
-      <c r="O71" s="22"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="19"/>
+      <c r="G71" s="19"/>
+      <c r="H71" s="19"/>
+      <c r="I71" s="19"/>
+      <c r="J71" s="19"/>
+      <c r="K71" s="19"/>
+      <c r="L71" s="19"/>
+      <c r="M71" s="19"/>
+      <c r="N71" s="19"/>
+      <c r="O71" s="19"/>
     </row>
     <row r="72" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="8"/>
-      <c r="C72" s="22"/>
-      <c r="D72" s="22"/>
-      <c r="E72" s="22"/>
-      <c r="F72" s="22"/>
-      <c r="G72" s="22"/>
-      <c r="H72" s="22"/>
-      <c r="I72" s="22"/>
-      <c r="J72" s="22"/>
-      <c r="K72" s="22"/>
-      <c r="L72" s="22"/>
-      <c r="M72" s="22"/>
-      <c r="N72" s="22"/>
-      <c r="O72" s="22"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="19"/>
+      <c r="E72" s="19"/>
+      <c r="F72" s="19"/>
+      <c r="G72" s="19"/>
+      <c r="H72" s="19"/>
+      <c r="I72" s="19"/>
+      <c r="J72" s="19"/>
+      <c r="K72" s="19"/>
+      <c r="L72" s="19"/>
+      <c r="M72" s="19"/>
+      <c r="N72" s="19"/>
+      <c r="O72" s="19"/>
     </row>
     <row r="73" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="8"/>
-      <c r="C73" s="22"/>
-      <c r="D73" s="22"/>
-      <c r="E73" s="22"/>
-      <c r="F73" s="22"/>
-      <c r="G73" s="22"/>
-      <c r="H73" s="22"/>
-      <c r="I73" s="22"/>
-      <c r="J73" s="22"/>
-      <c r="K73" s="22"/>
-      <c r="L73" s="22"/>
-      <c r="M73" s="22"/>
-      <c r="N73" s="22"/>
-      <c r="O73" s="22"/>
+      <c r="C73" s="19"/>
+      <c r="D73" s="19"/>
+      <c r="E73" s="19"/>
+      <c r="F73" s="19"/>
+      <c r="G73" s="19"/>
+      <c r="H73" s="19"/>
+      <c r="I73" s="19"/>
+      <c r="J73" s="19"/>
+      <c r="K73" s="19"/>
+      <c r="L73" s="19"/>
+      <c r="M73" s="19"/>
+      <c r="N73" s="19"/>
+      <c r="O73" s="19"/>
     </row>
     <row r="74" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="8"/>
-      <c r="C74" s="22"/>
-      <c r="D74" s="22"/>
-      <c r="E74" s="22"/>
-      <c r="F74" s="22"/>
-      <c r="G74" s="22"/>
-      <c r="H74" s="22"/>
-      <c r="I74" s="22"/>
-      <c r="J74" s="22"/>
-      <c r="K74" s="22"/>
-      <c r="L74" s="22"/>
-      <c r="M74" s="22"/>
-      <c r="N74" s="22"/>
-      <c r="O74" s="22"/>
+      <c r="C74" s="19"/>
+      <c r="D74" s="19"/>
+      <c r="E74" s="19"/>
+      <c r="F74" s="19"/>
+      <c r="G74" s="19"/>
+      <c r="H74" s="19"/>
+      <c r="I74" s="19"/>
+      <c r="J74" s="19"/>
+      <c r="K74" s="19"/>
+      <c r="L74" s="19"/>
+      <c r="M74" s="19"/>
+      <c r="N74" s="19"/>
+      <c r="O74" s="19"/>
     </row>
     <row r="75" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="8"/>
-      <c r="C75" s="22"/>
-      <c r="D75" s="22"/>
-      <c r="E75" s="22"/>
-      <c r="F75" s="22"/>
-      <c r="G75" s="22"/>
-      <c r="H75" s="22"/>
-      <c r="I75" s="22"/>
-      <c r="J75" s="22"/>
-      <c r="K75" s="22"/>
-      <c r="L75" s="22"/>
-      <c r="M75" s="22"/>
-      <c r="N75" s="22"/>
-      <c r="O75" s="22"/>
+      <c r="C75" s="19"/>
+      <c r="D75" s="19"/>
+      <c r="E75" s="19"/>
+      <c r="F75" s="19"/>
+      <c r="G75" s="19"/>
+      <c r="H75" s="19"/>
+      <c r="I75" s="19"/>
+      <c r="J75" s="19"/>
+      <c r="K75" s="19"/>
+      <c r="L75" s="19"/>
+      <c r="M75" s="19"/>
+      <c r="N75" s="19"/>
+      <c r="O75" s="19"/>
     </row>
     <row r="76" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="8"/>
-      <c r="C76" s="22"/>
-      <c r="D76" s="22"/>
-      <c r="E76" s="22"/>
-      <c r="F76" s="22"/>
-      <c r="G76" s="22"/>
-      <c r="H76" s="22"/>
-      <c r="I76" s="22"/>
-      <c r="J76" s="22"/>
-      <c r="K76" s="22"/>
-      <c r="L76" s="22"/>
-      <c r="M76" s="22"/>
-      <c r="N76" s="22"/>
-      <c r="O76" s="22"/>
+      <c r="C76" s="19"/>
+      <c r="D76" s="19"/>
+      <c r="E76" s="19"/>
+      <c r="F76" s="19"/>
+      <c r="G76" s="19"/>
+      <c r="H76" s="19"/>
+      <c r="I76" s="19"/>
+      <c r="J76" s="19"/>
+      <c r="K76" s="19"/>
+      <c r="L76" s="19"/>
+      <c r="M76" s="19"/>
+      <c r="N76" s="19"/>
+      <c r="O76" s="19"/>
     </row>
     <row r="77" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="8"/>
-      <c r="C77" s="22"/>
-      <c r="D77" s="22"/>
-      <c r="E77" s="22"/>
-      <c r="F77" s="22"/>
-      <c r="G77" s="22"/>
-      <c r="H77" s="22"/>
-      <c r="I77" s="22"/>
-      <c r="J77" s="22"/>
-      <c r="K77" s="22"/>
-      <c r="L77" s="22"/>
-      <c r="M77" s="22"/>
-      <c r="N77" s="22"/>
-      <c r="O77" s="22"/>
+      <c r="C77" s="19"/>
+      <c r="D77" s="19"/>
+      <c r="E77" s="19"/>
+      <c r="F77" s="19"/>
+      <c r="G77" s="19"/>
+      <c r="H77" s="19"/>
+      <c r="I77" s="19"/>
+      <c r="J77" s="19"/>
+      <c r="K77" s="19"/>
+      <c r="L77" s="19"/>
+      <c r="M77" s="19"/>
+      <c r="N77" s="19"/>
+      <c r="O77" s="19"/>
     </row>
     <row r="78" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="8"/>
-      <c r="C78" s="22"/>
-      <c r="D78" s="22"/>
-      <c r="E78" s="22"/>
-      <c r="F78" s="22"/>
-      <c r="G78" s="22"/>
-      <c r="H78" s="22"/>
-      <c r="I78" s="22"/>
-      <c r="J78" s="22"/>
-      <c r="K78" s="22"/>
-      <c r="L78" s="22"/>
-      <c r="M78" s="22"/>
-      <c r="N78" s="22"/>
-      <c r="O78" s="22"/>
+      <c r="C78" s="19"/>
+      <c r="D78" s="19"/>
+      <c r="E78" s="19"/>
+      <c r="F78" s="19"/>
+      <c r="G78" s="19"/>
+      <c r="H78" s="19"/>
+      <c r="I78" s="19"/>
+      <c r="J78" s="19"/>
+      <c r="K78" s="19"/>
+      <c r="L78" s="19"/>
+      <c r="M78" s="19"/>
+      <c r="N78" s="19"/>
+      <c r="O78" s="19"/>
     </row>
     <row r="79" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="8"/>
-      <c r="C79" s="22"/>
-      <c r="D79" s="22"/>
-      <c r="E79" s="22"/>
-      <c r="F79" s="22"/>
-      <c r="G79" s="22"/>
-      <c r="H79" s="22"/>
-      <c r="I79" s="22"/>
-      <c r="J79" s="22"/>
-      <c r="K79" s="22"/>
-      <c r="L79" s="22"/>
-      <c r="M79" s="22"/>
-      <c r="N79" s="22"/>
-      <c r="O79" s="22"/>
+      <c r="C79" s="19"/>
+      <c r="D79" s="19"/>
+      <c r="E79" s="19"/>
+      <c r="F79" s="19"/>
+      <c r="G79" s="19"/>
+      <c r="H79" s="19"/>
+      <c r="I79" s="19"/>
+      <c r="J79" s="19"/>
+      <c r="K79" s="19"/>
+      <c r="L79" s="19"/>
+      <c r="M79" s="19"/>
+      <c r="N79" s="19"/>
+      <c r="O79" s="19"/>
     </row>
     <row r="80" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="8"/>
-      <c r="C80" s="22"/>
-      <c r="D80" s="22"/>
-      <c r="E80" s="22"/>
-      <c r="F80" s="22"/>
-      <c r="G80" s="22"/>
-      <c r="H80" s="22"/>
-      <c r="I80" s="22"/>
-      <c r="J80" s="22"/>
-      <c r="K80" s="22"/>
-      <c r="L80" s="22"/>
-      <c r="M80" s="22"/>
-      <c r="N80" s="22"/>
-      <c r="O80" s="22"/>
+      <c r="C80" s="19"/>
+      <c r="D80" s="19"/>
+      <c r="E80" s="19"/>
+      <c r="F80" s="19"/>
+      <c r="G80" s="19"/>
+      <c r="H80" s="19"/>
+      <c r="I80" s="19"/>
+      <c r="J80" s="19"/>
+      <c r="K80" s="19"/>
+      <c r="L80" s="19"/>
+      <c r="M80" s="19"/>
+      <c r="N80" s="19"/>
+      <c r="O80" s="19"/>
     </row>
     <row r="81" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="8"/>
-      <c r="C81" s="22"/>
-      <c r="D81" s="22"/>
-      <c r="E81" s="22"/>
-      <c r="F81" s="22"/>
-      <c r="G81" s="22"/>
-      <c r="H81" s="22"/>
-      <c r="I81" s="22"/>
-      <c r="J81" s="22"/>
-      <c r="K81" s="22"/>
-      <c r="L81" s="22"/>
-      <c r="M81" s="22"/>
-      <c r="N81" s="22"/>
-      <c r="O81" s="22"/>
+      <c r="C81" s="19"/>
+      <c r="D81" s="19"/>
+      <c r="E81" s="19"/>
+      <c r="F81" s="19"/>
+      <c r="G81" s="19"/>
+      <c r="H81" s="19"/>
+      <c r="I81" s="19"/>
+      <c r="J81" s="19"/>
+      <c r="K81" s="19"/>
+      <c r="L81" s="19"/>
+      <c r="M81" s="19"/>
+      <c r="N81" s="19"/>
+      <c r="O81" s="19"/>
     </row>
     <row r="82" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="8"/>
-      <c r="C82" s="22"/>
-      <c r="D82" s="22"/>
-      <c r="E82" s="22"/>
-      <c r="F82" s="22"/>
-      <c r="G82" s="22"/>
-      <c r="H82" s="22"/>
-      <c r="I82" s="22"/>
-      <c r="J82" s="22"/>
-      <c r="K82" s="22"/>
-      <c r="L82" s="22"/>
-      <c r="M82" s="22"/>
-      <c r="N82" s="22"/>
-      <c r="O82" s="22"/>
+      <c r="C82" s="19"/>
+      <c r="D82" s="19"/>
+      <c r="E82" s="19"/>
+      <c r="F82" s="19"/>
+      <c r="G82" s="19"/>
+      <c r="H82" s="19"/>
+      <c r="I82" s="19"/>
+      <c r="J82" s="19"/>
+      <c r="K82" s="19"/>
+      <c r="L82" s="19"/>
+      <c r="M82" s="19"/>
+      <c r="N82" s="19"/>
+      <c r="O82" s="19"/>
     </row>
     <row r="83" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="8"/>
-      <c r="C83" s="22"/>
-      <c r="D83" s="22"/>
-      <c r="E83" s="22"/>
-      <c r="F83" s="22"/>
-      <c r="G83" s="22"/>
-      <c r="H83" s="22"/>
-      <c r="I83" s="22"/>
-      <c r="J83" s="22"/>
-      <c r="K83" s="22"/>
-      <c r="L83" s="22"/>
-      <c r="M83" s="22"/>
-      <c r="N83" s="22"/>
-      <c r="O83" s="22"/>
+      <c r="C83" s="19"/>
+      <c r="D83" s="19"/>
+      <c r="E83" s="19"/>
+      <c r="F83" s="19"/>
+      <c r="G83" s="19"/>
+      <c r="H83" s="19"/>
+      <c r="I83" s="19"/>
+      <c r="J83" s="19"/>
+      <c r="K83" s="19"/>
+      <c r="L83" s="19"/>
+      <c r="M83" s="19"/>
+      <c r="N83" s="19"/>
+      <c r="O83" s="19"/>
     </row>
     <row r="84" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="8"/>
-      <c r="C84" s="22"/>
-      <c r="D84" s="22"/>
-      <c r="E84" s="22"/>
-      <c r="F84" s="22"/>
-      <c r="G84" s="22"/>
-      <c r="H84" s="22"/>
-      <c r="I84" s="22"/>
-      <c r="J84" s="22"/>
-      <c r="K84" s="22"/>
-      <c r="L84" s="22"/>
-      <c r="M84" s="22"/>
-      <c r="N84" s="22"/>
-      <c r="O84" s="22"/>
+      <c r="C84" s="19"/>
+      <c r="D84" s="19"/>
+      <c r="E84" s="19"/>
+      <c r="F84" s="19"/>
+      <c r="G84" s="19"/>
+      <c r="H84" s="19"/>
+      <c r="I84" s="19"/>
+      <c r="J84" s="19"/>
+      <c r="K84" s="19"/>
+      <c r="L84" s="19"/>
+      <c r="M84" s="19"/>
+      <c r="N84" s="19"/>
+      <c r="O84" s="19"/>
     </row>
     <row r="85" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="8"/>
-      <c r="C85" s="22"/>
-      <c r="D85" s="22"/>
-      <c r="E85" s="22"/>
-      <c r="F85" s="22"/>
-      <c r="G85" s="22"/>
-      <c r="H85" s="22"/>
-      <c r="I85" s="22"/>
-      <c r="J85" s="22"/>
-      <c r="K85" s="22"/>
-      <c r="L85" s="22"/>
-      <c r="M85" s="22"/>
-      <c r="N85" s="22"/>
-      <c r="O85" s="22"/>
+      <c r="C85" s="19"/>
+      <c r="D85" s="19"/>
+      <c r="E85" s="19"/>
+      <c r="F85" s="19"/>
+      <c r="G85" s="19"/>
+      <c r="H85" s="19"/>
+      <c r="I85" s="19"/>
+      <c r="J85" s="19"/>
+      <c r="K85" s="19"/>
+      <c r="L85" s="19"/>
+      <c r="M85" s="19"/>
+      <c r="N85" s="19"/>
+      <c r="O85" s="19"/>
     </row>
     <row r="86" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="8"/>
-      <c r="C86" s="22"/>
-      <c r="D86" s="22"/>
-      <c r="E86" s="22"/>
-      <c r="F86" s="22"/>
-      <c r="G86" s="22"/>
-      <c r="H86" s="22"/>
-      <c r="I86" s="22"/>
-      <c r="J86" s="22"/>
-      <c r="K86" s="22"/>
-      <c r="L86" s="22"/>
-      <c r="M86" s="22"/>
-      <c r="N86" s="22"/>
-      <c r="O86" s="22"/>
+      <c r="C86" s="19"/>
+      <c r="D86" s="19"/>
+      <c r="E86" s="19"/>
+      <c r="F86" s="19"/>
+      <c r="G86" s="19"/>
+      <c r="H86" s="19"/>
+      <c r="I86" s="19"/>
+      <c r="J86" s="19"/>
+      <c r="K86" s="19"/>
+      <c r="L86" s="19"/>
+      <c r="M86" s="19"/>
+      <c r="N86" s="19"/>
+      <c r="O86" s="19"/>
     </row>
     <row r="87" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="8"/>
-      <c r="C87" s="22"/>
-      <c r="D87" s="22"/>
-      <c r="E87" s="22"/>
-      <c r="F87" s="22"/>
-      <c r="G87" s="22"/>
-      <c r="H87" s="22"/>
-      <c r="I87" s="22"/>
-      <c r="J87" s="22"/>
-      <c r="K87" s="22"/>
-      <c r="L87" s="22"/>
-      <c r="M87" s="22"/>
-      <c r="N87" s="22"/>
-      <c r="O87" s="22"/>
+      <c r="C87" s="19"/>
+      <c r="D87" s="19"/>
+      <c r="E87" s="19"/>
+      <c r="F87" s="19"/>
+      <c r="G87" s="19"/>
+      <c r="H87" s="19"/>
+      <c r="I87" s="19"/>
+      <c r="J87" s="19"/>
+      <c r="K87" s="19"/>
+      <c r="L87" s="19"/>
+      <c r="M87" s="19"/>
+      <c r="N87" s="19"/>
+      <c r="O87" s="19"/>
     </row>
     <row r="88" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="8"/>
-      <c r="C88" s="22"/>
-      <c r="D88" s="22"/>
-      <c r="E88" s="22"/>
-      <c r="F88" s="22"/>
-      <c r="G88" s="22"/>
-      <c r="H88" s="22"/>
-      <c r="I88" s="22"/>
-      <c r="J88" s="22"/>
-      <c r="K88" s="22"/>
-      <c r="L88" s="22"/>
-      <c r="M88" s="22"/>
-      <c r="N88" s="22"/>
-      <c r="O88" s="22"/>
+      <c r="C88" s="19"/>
+      <c r="D88" s="19"/>
+      <c r="E88" s="19"/>
+      <c r="F88" s="19"/>
+      <c r="G88" s="19"/>
+      <c r="H88" s="19"/>
+      <c r="I88" s="19"/>
+      <c r="J88" s="19"/>
+      <c r="K88" s="19"/>
+      <c r="L88" s="19"/>
+      <c r="M88" s="19"/>
+      <c r="N88" s="19"/>
+      <c r="O88" s="19"/>
     </row>
     <row r="89" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="8"/>
-      <c r="C89" s="22"/>
-      <c r="D89" s="22"/>
-      <c r="E89" s="22"/>
-      <c r="F89" s="22"/>
-      <c r="G89" s="22"/>
-      <c r="H89" s="22"/>
-      <c r="I89" s="22"/>
-      <c r="J89" s="22"/>
-      <c r="K89" s="22"/>
-      <c r="L89" s="22"/>
-      <c r="M89" s="22"/>
-      <c r="N89" s="22"/>
-      <c r="O89" s="22"/>
+      <c r="C89" s="19"/>
+      <c r="D89" s="19"/>
+      <c r="E89" s="19"/>
+      <c r="F89" s="19"/>
+      <c r="G89" s="19"/>
+      <c r="H89" s="19"/>
+      <c r="I89" s="19"/>
+      <c r="J89" s="19"/>
+      <c r="K89" s="19"/>
+      <c r="L89" s="19"/>
+      <c r="M89" s="19"/>
+      <c r="N89" s="19"/>
+      <c r="O89" s="19"/>
     </row>
     <row r="90" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="8"/>
-      <c r="C90" s="22"/>
-      <c r="D90" s="22"/>
-      <c r="E90" s="22"/>
-      <c r="F90" s="22"/>
-      <c r="G90" s="22"/>
-      <c r="H90" s="22"/>
-      <c r="I90" s="22"/>
-      <c r="J90" s="22"/>
-      <c r="K90" s="22"/>
-      <c r="L90" s="22"/>
-      <c r="M90" s="22"/>
-      <c r="N90" s="22"/>
-      <c r="O90" s="22"/>
+      <c r="C90" s="19"/>
+      <c r="D90" s="19"/>
+      <c r="E90" s="19"/>
+      <c r="F90" s="19"/>
+      <c r="G90" s="19"/>
+      <c r="H90" s="19"/>
+      <c r="I90" s="19"/>
+      <c r="J90" s="19"/>
+      <c r="K90" s="19"/>
+      <c r="L90" s="19"/>
+      <c r="M90" s="19"/>
+      <c r="N90" s="19"/>
+      <c r="O90" s="19"/>
     </row>
     <row r="91" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="8"/>
-      <c r="C91" s="22"/>
-      <c r="D91" s="22"/>
-      <c r="E91" s="22"/>
-      <c r="F91" s="22"/>
-      <c r="G91" s="22"/>
-      <c r="H91" s="22"/>
-      <c r="I91" s="22"/>
-      <c r="J91" s="22"/>
-      <c r="K91" s="22"/>
-      <c r="L91" s="22"/>
-      <c r="M91" s="22"/>
-      <c r="N91" s="22"/>
-      <c r="O91" s="22"/>
+      <c r="C91" s="19"/>
+      <c r="D91" s="19"/>
+      <c r="E91" s="19"/>
+      <c r="F91" s="19"/>
+      <c r="G91" s="19"/>
+      <c r="H91" s="19"/>
+      <c r="I91" s="19"/>
+      <c r="J91" s="19"/>
+      <c r="K91" s="19"/>
+      <c r="L91" s="19"/>
+      <c r="M91" s="19"/>
+      <c r="N91" s="19"/>
+      <c r="O91" s="19"/>
     </row>
     <row r="92" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B92" s="8"/>
-      <c r="C92" s="22"/>
-      <c r="D92" s="22"/>
-      <c r="E92" s="22"/>
-      <c r="F92" s="22"/>
-      <c r="G92" s="22"/>
-      <c r="H92" s="22"/>
-      <c r="I92" s="22"/>
-      <c r="J92" s="22"/>
-      <c r="K92" s="22"/>
-      <c r="L92" s="22"/>
-      <c r="M92" s="22"/>
-      <c r="N92" s="22"/>
-      <c r="O92" s="22"/>
+      <c r="C92" s="19"/>
+      <c r="D92" s="19"/>
+      <c r="E92" s="19"/>
+      <c r="F92" s="19"/>
+      <c r="G92" s="19"/>
+      <c r="H92" s="19"/>
+      <c r="I92" s="19"/>
+      <c r="J92" s="19"/>
+      <c r="K92" s="19"/>
+      <c r="L92" s="19"/>
+      <c r="M92" s="19"/>
+      <c r="N92" s="19"/>
+      <c r="O92" s="19"/>
     </row>
     <row r="93" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B93" s="8"/>
-      <c r="C93" s="22"/>
-      <c r="D93" s="22"/>
-      <c r="E93" s="22"/>
-      <c r="F93" s="22"/>
-      <c r="G93" s="22"/>
-      <c r="H93" s="22"/>
-      <c r="I93" s="22"/>
-      <c r="J93" s="22"/>
-      <c r="K93" s="22"/>
-      <c r="L93" s="22"/>
-      <c r="M93" s="22"/>
-      <c r="N93" s="22"/>
-      <c r="O93" s="22"/>
+      <c r="C93" s="19"/>
+      <c r="D93" s="19"/>
+      <c r="E93" s="19"/>
+      <c r="F93" s="19"/>
+      <c r="G93" s="19"/>
+      <c r="H93" s="19"/>
+      <c r="I93" s="19"/>
+      <c r="J93" s="19"/>
+      <c r="K93" s="19"/>
+      <c r="L93" s="19"/>
+      <c r="M93" s="19"/>
+      <c r="N93" s="19"/>
+      <c r="O93" s="19"/>
     </row>
     <row r="94" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="8"/>
-      <c r="C94" s="22"/>
-      <c r="D94" s="22"/>
-      <c r="E94" s="22"/>
-      <c r="F94" s="22"/>
-      <c r="G94" s="22"/>
-      <c r="H94" s="22"/>
-      <c r="I94" s="22"/>
-      <c r="J94" s="22"/>
-      <c r="K94" s="22"/>
-      <c r="L94" s="22"/>
-      <c r="M94" s="22"/>
-      <c r="N94" s="22"/>
-      <c r="O94" s="22"/>
+      <c r="C94" s="19"/>
+      <c r="D94" s="19"/>
+      <c r="E94" s="19"/>
+      <c r="F94" s="19"/>
+      <c r="G94" s="19"/>
+      <c r="H94" s="19"/>
+      <c r="I94" s="19"/>
+      <c r="J94" s="19"/>
+      <c r="K94" s="19"/>
+      <c r="L94" s="19"/>
+      <c r="M94" s="19"/>
+      <c r="N94" s="19"/>
+      <c r="O94" s="19"/>
     </row>
     <row r="95" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="8"/>
-      <c r="C95" s="22"/>
-      <c r="D95" s="22"/>
-      <c r="E95" s="22"/>
-      <c r="F95" s="22"/>
-      <c r="G95" s="22"/>
-      <c r="H95" s="22"/>
-      <c r="I95" s="22"/>
-      <c r="J95" s="22"/>
-      <c r="K95" s="22"/>
-      <c r="L95" s="22"/>
-      <c r="M95" s="22"/>
-      <c r="N95" s="22"/>
-      <c r="O95" s="22"/>
+      <c r="C95" s="19"/>
+      <c r="D95" s="19"/>
+      <c r="E95" s="19"/>
+      <c r="F95" s="19"/>
+      <c r="G95" s="19"/>
+      <c r="H95" s="19"/>
+      <c r="I95" s="19"/>
+      <c r="J95" s="19"/>
+      <c r="K95" s="19"/>
+      <c r="L95" s="19"/>
+      <c r="M95" s="19"/>
+      <c r="N95" s="19"/>
+      <c r="O95" s="19"/>
     </row>
     <row r="96" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B96" s="8"/>
-      <c r="C96" s="22"/>
-      <c r="D96" s="22"/>
-      <c r="E96" s="22"/>
-      <c r="F96" s="22"/>
-      <c r="G96" s="22"/>
-      <c r="H96" s="22"/>
-      <c r="I96" s="22"/>
-      <c r="J96" s="22"/>
-      <c r="K96" s="22"/>
-      <c r="L96" s="22"/>
-      <c r="M96" s="22"/>
-      <c r="N96" s="22"/>
-      <c r="O96" s="22"/>
+      <c r="C96" s="19"/>
+      <c r="D96" s="19"/>
+      <c r="E96" s="19"/>
+      <c r="F96" s="19"/>
+      <c r="G96" s="19"/>
+      <c r="H96" s="19"/>
+      <c r="I96" s="19"/>
+      <c r="J96" s="19"/>
+      <c r="K96" s="19"/>
+      <c r="L96" s="19"/>
+      <c r="M96" s="19"/>
+      <c r="N96" s="19"/>
+      <c r="O96" s="19"/>
     </row>
     <row r="97" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B97" s="8"/>
-      <c r="C97" s="22"/>
-      <c r="D97" s="22"/>
-      <c r="E97" s="22"/>
-      <c r="F97" s="22"/>
-      <c r="G97" s="22"/>
-      <c r="H97" s="22"/>
-      <c r="I97" s="22"/>
-      <c r="J97" s="22"/>
-      <c r="K97" s="22"/>
-      <c r="L97" s="22"/>
-      <c r="M97" s="22"/>
-      <c r="N97" s="22"/>
-      <c r="O97" s="22"/>
+      <c r="C97" s="19"/>
+      <c r="D97" s="19"/>
+      <c r="E97" s="19"/>
+      <c r="F97" s="19"/>
+      <c r="G97" s="19"/>
+      <c r="H97" s="19"/>
+      <c r="I97" s="19"/>
+      <c r="J97" s="19"/>
+      <c r="K97" s="19"/>
+      <c r="L97" s="19"/>
+      <c r="M97" s="19"/>
+      <c r="N97" s="19"/>
+      <c r="O97" s="19"/>
     </row>
     <row r="98" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B98" s="8"/>
-      <c r="C98" s="22"/>
-      <c r="D98" s="22"/>
-      <c r="E98" s="22"/>
-      <c r="F98" s="22"/>
-      <c r="G98" s="22"/>
-      <c r="H98" s="22"/>
-      <c r="I98" s="22"/>
-      <c r="J98" s="22"/>
-      <c r="K98" s="22"/>
-      <c r="L98" s="22"/>
-      <c r="M98" s="22"/>
-      <c r="N98" s="22"/>
-      <c r="O98" s="22"/>
+      <c r="C98" s="19"/>
+      <c r="D98" s="19"/>
+      <c r="E98" s="19"/>
+      <c r="F98" s="19"/>
+      <c r="G98" s="19"/>
+      <c r="H98" s="19"/>
+      <c r="I98" s="19"/>
+      <c r="J98" s="19"/>
+      <c r="K98" s="19"/>
+      <c r="L98" s="19"/>
+      <c r="M98" s="19"/>
+      <c r="N98" s="19"/>
+      <c r="O98" s="19"/>
     </row>
     <row r="99" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="8"/>
-      <c r="C99" s="22"/>
-      <c r="D99" s="22"/>
-      <c r="E99" s="22"/>
-      <c r="F99" s="22"/>
-      <c r="G99" s="22"/>
-      <c r="H99" s="22"/>
-      <c r="I99" s="22"/>
-      <c r="J99" s="22"/>
-      <c r="K99" s="22"/>
-      <c r="L99" s="22"/>
-      <c r="M99" s="22"/>
-      <c r="N99" s="22"/>
-      <c r="O99" s="22"/>
+      <c r="C99" s="19"/>
+      <c r="D99" s="19"/>
+      <c r="E99" s="19"/>
+      <c r="F99" s="19"/>
+      <c r="G99" s="19"/>
+      <c r="H99" s="19"/>
+      <c r="I99" s="19"/>
+      <c r="J99" s="19"/>
+      <c r="K99" s="19"/>
+      <c r="L99" s="19"/>
+      <c r="M99" s="19"/>
+      <c r="N99" s="19"/>
+      <c r="O99" s="19"/>
     </row>
     <row r="100" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" s="8"/>
-      <c r="C100" s="22"/>
-      <c r="D100" s="22"/>
-      <c r="E100" s="22"/>
-      <c r="F100" s="22"/>
-      <c r="G100" s="22"/>
-      <c r="H100" s="22"/>
-      <c r="I100" s="22"/>
-      <c r="J100" s="22"/>
-      <c r="K100" s="22"/>
-      <c r="L100" s="22"/>
-      <c r="M100" s="22"/>
-      <c r="N100" s="22"/>
-      <c r="O100" s="22"/>
+      <c r="C100" s="19"/>
+      <c r="D100" s="19"/>
+      <c r="E100" s="19"/>
+      <c r="F100" s="19"/>
+      <c r="G100" s="19"/>
+      <c r="H100" s="19"/>
+      <c r="I100" s="19"/>
+      <c r="J100" s="19"/>
+      <c r="K100" s="19"/>
+      <c r="L100" s="19"/>
+      <c r="M100" s="19"/>
+      <c r="N100" s="19"/>
+      <c r="O100" s="19"/>
     </row>
     <row r="101" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="8"/>
